--- a/biology/Médecine/1321_en_santé_et_médecine/1321_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1321_en_santé_et_médecine/1321_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1321_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1321_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1321 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1321_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1321_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18 février : le pape Jean XXII accorde le privilège de conférer les grades en médecine à l'université de Pérouse, érigée en studium generale par le pape Clément V en 1308, et où l'art médical s'enseigne depuis le début du XIIIe siècle[1].
-21 juin : en réponse aux rumeurs qui, en France et en Espagne, accusent les lépreux d'empoisonner les puits et les fontaines avec la complicité des Juifs[2], le roi de France Philippe le Long fait publier une ordonnance par laquelle il condamne au bûcher tous ceux d'entre eux qui avoueront et dont beaucoup seront exécutés, à Rodez, Cahors, Périgueux, Limoges ou autres lieux[3],[4].
-18 juillet : fondation, à Paris, rue Saint-Denis, par le pape Jean XXII, de l'hôpital Saint-Jacques-aux-Pèlerins[5] dont la construction, commencée en 1319, s'achèvera en 1323, et où les pèlerins seront très tôt remplacés par « de pauvres mendiants[6] ».
-Fondation de l'hôpital Saint-Julien, à Lille, « fondé par la veuve d'un bourgeois et administré par les échevins afin de recevoir des pauvres pour la nuit[7] ».
-Fondation d'un hôpital à Saint-Germain-de-Calberte, dans les Cévennes[8],[9].
-On compte vingt-et-un lits dans une des léproseries de Narbonne, en Languedoc[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 février : le pape Jean XXII accorde le privilège de conférer les grades en médecine à l'université de Pérouse, érigée en studium generale par le pape Clément V en 1308, et où l'art médical s'enseigne depuis le début du XIIIe siècle.
+21 juin : en réponse aux rumeurs qui, en France et en Espagne, accusent les lépreux d'empoisonner les puits et les fontaines avec la complicité des Juifs, le roi de France Philippe le Long fait publier une ordonnance par laquelle il condamne au bûcher tous ceux d'entre eux qui avoueront et dont beaucoup seront exécutés, à Rodez, Cahors, Périgueux, Limoges ou autres lieux,.
+18 juillet : fondation, à Paris, rue Saint-Denis, par le pape Jean XXII, de l'hôpital Saint-Jacques-aux-Pèlerins dont la construction, commencée en 1319, s'achèvera en 1323, et où les pèlerins seront très tôt remplacés par « de pauvres mendiants ».
+Fondation de l'hôpital Saint-Julien, à Lille, « fondé par la veuve d'un bourgeois et administré par les échevins afin de recevoir des pauvres pour la nuit ».
+Fondation d'un hôpital à Saint-Germain-de-Calberte, dans les Cévennes,.
+On compte vingt-et-un lits dans une des léproseries de Narbonne, en Languedoc.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1321_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1321_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Après 1321 : Bartolomeo da Varignana (né près de Bologne, en Romagne, à une date inconnue), maître de médecine à Bologne et Pérouse[11].
-Entre 1321 et 1339 : Arnold de Bamberg (né à une date inconnue), médecin du comte palatin Rodolphe Ier, auteur en 1317 d'un « régime de santé » composé à la demande d'Augustin Kazotic, évêque de Zagreb[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Après 1321 : Bartolomeo da Varignana (né près de Bologne, en Romagne, à une date inconnue), maître de médecine à Bologne et Pérouse.
+Entre 1321 et 1339 : Arnold de Bamberg (né à une date inconnue), médecin du comte palatin Rodolphe Ier, auteur en 1317 d'un « régime de santé » composé à la demande d'Augustin Kazotic, évêque de Zagreb.</t>
         </is>
       </c>
     </row>
